--- a/biology/Botanique/Pandanaceae/Pandanaceae.xlsx
+++ b/biology/Botanique/Pandanaceae/Pandanaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pandanacées forment une famille de plantes monocotylédones dont les espèces les plus communes sont les différentes espèces du genre pandanus.  On peut citer le palmier à vis (Pandanus utilis)[1]. C'est une ancienne famille datant du début au milieu du Crétacé[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pandanacées forment une famille de plantes monocotylédones dont les espèces les plus communes sont les différentes espèces du genre pandanus.  On peut citer le palmier à vis (Pandanus utilis). C'est une ancienne famille datant du début au milieu du Crétacé.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Pandanus dérivé de pandan mot d'origine malaise nommant l'épice culinaire tirée des feuilles de l'espèce Pandanus amaryllifolius  .
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont en apparence des « arbres », des « arbustes » ou des lianes rhizomateuses, parfois épiphytes ou grimpantes, des régions tempérées à tropicales (Afrique de l'Ouest, Madagascar, Asie, Océanie). Madagascar, par exemple, compte 70 espèces de pandanacées.
 Dans cette famille, on a des espèces à division dichotomique et à racines aériennes qui servent de supports à la plante.
-Les feuilles sont très longues et étroites, gainantes, simples, non divisées, à nervures parallèles ; les marges des feuilles et les nervures médianes abaxiales sont souvent piquantes[3].
-Les plantes sont dioïques. Les inflorescences sont des grappes terminales, des épis ou des ombelles, avec des spathes sous-tendues, qui peuvent être de couleur vive. Les fleurs sont minuscules et manquent de périanthes. Les fleurs mâles contiennent de nombreuses étamines à filaments libres ou soudés. Les fleurs femelles ont un ovaire supère, généralement composé de plusieurs carpelles en anneau, mais peuvent être réduits à une rangée de carpelles ou à un seul carpelle. Les fruits sont des baies ou des drupes[4], généralement multiples[5].
+Les feuilles sont très longues et étroites, gainantes, simples, non divisées, à nervures parallèles ; les marges des feuilles et les nervures médianes abaxiales sont souvent piquantes.
+Les plantes sont dioïques. Les inflorescences sont des grappes terminales, des épis ou des ombelles, avec des spathes sous-tendues, qui peuvent être de couleur vive. Les fleurs sont minuscules et manquent de périanthes. Les fleurs mâles contiennent de nombreuses étamines à filaments libres ou soudés. Les fleurs femelles ont un ovaire supère, généralement composé de plusieurs carpelles en anneau, mais peuvent être réduits à une rangée de carpelles ou à un seul carpelle. Les fruits sont des baies ou des drupes, généralement multiples.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des espèces particulières de Pandanus sont utilisées pour fabriquer des tapis (par exemple en Afrique centrale) ou dans des produits alimentaires (par exemple, des feuilles comme arôme ou des fruits en Asie du Sud-Est). 
 </t>
@@ -607,7 +625,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Classiquement, la famille comprend 700 espèces réparties en trois genres :
 Freycinetia
@@ -615,23 +635,23 @@
 Sararanga
 Toutefois, en classification moderne, on considère un genre de plus regroupant des espèces anciennement classées comme Pandanus :
 Martellidendron
-Selon Angiosperm Phylogeny Website                        (14 août 2015)[6] :
+Selon Angiosperm Phylogeny Website                        (14 août 2015) :
 genre Benstonea
 genre Freycinetia
 genre Matellidendron
 genre Pandanus
 genre Sararanga
-Selon NCBI  (14 août 2015)[7] :
+Selon NCBI  (14 août 2015) :
 genre Benstonea
 genre Freycinetia
 genre Martellidendron
 genre Pandanus
 genre Sararanga
-Selon DELTA Angio           (14 août 2015)[8] :
+Selon DELTA Angio           (14 août 2015) :
 genre Freycinetia
 genre Pandanus
 genre Sararanga
-Selon ITIS      (14 août 2015)[9] :
+Selon ITIS      (14 août 2015) :
 genre Freycinetia Gaud.
 genre Pandanus L. f.</t>
         </is>
@@ -661,9 +681,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 avr. 2010)[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 avr. 2010) :
 genre Freycinetia
 Freycinetia angustissima
 Freycinetia arborea
